--- a/results/origin_arousal/s02.xlsx
+++ b/results/origin_arousal/s02.xlsx
@@ -9,8 +9,9 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summary" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="0.0" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="1.0" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,18 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>accuracy</t>
   </si>
   <si>
     <t>batch_size</t>
-  </si>
-  <si>
-    <t>calibration</t>
-  </si>
-  <si>
-    <t>cnn_fc</t>
   </si>
   <si>
     <t>conv_1</t>
@@ -41,7 +36,7 @@
     <t>conv_3</t>
   </si>
   <si>
-    <t>conv_fuse</t>
+    <t>conv_4</t>
   </si>
   <si>
     <t>epoch</t>
@@ -59,19 +54,7 @@
     <t>learning_rate</t>
   </si>
   <si>
-    <t>n_person</t>
-  </si>
-  <si>
     <t>norm</t>
-  </si>
-  <si>
-    <t>pool_1</t>
-  </si>
-  <si>
-    <t>pool_2</t>
-  </si>
-  <si>
-    <t>pool_3</t>
   </si>
   <si>
     <t>regularization</t>
@@ -92,28 +75,22 @@
     <t>train_sample</t>
   </si>
   <si>
-    <t>N</t>
+    <t>4*4*32</t>
   </si>
   <si>
-    <t>3*3*1*32</t>
+    <t>4*4*64</t>
   </si>
   <si>
-    <t>3*3*1*64</t>
+    <t>4*4*128</t>
   </si>
   <si>
-    <t>3*3*1*128</t>
-  </si>
-  <si>
-    <t>plus</t>
+    <t>1*1*13</t>
   </si>
   <si>
     <t>concat</t>
   </si>
   <si>
     <t>2D</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
   <si>
     <t>dropout</t>
@@ -129,6 +106,15 @@
   </si>
   <si>
     <t>train_loss</t>
+  </si>
+  <si>
+    <t>f1_score</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>recall</t>
   </si>
   <si>
     <t>fpr</t>
@@ -486,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,7 +480,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,96 +535,60 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="n">
-        <v>0.5800000131130219</v>
+        <v>0.5875000059604645</v>
       </c>
       <c r="B2" t="n">
         <v>200</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="n">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="n">
+        <v>32</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="n">
+      <c r="N2" t="n">
         <v>1024</v>
       </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" t="n">
-        <v>70</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" t="n">
-        <v>32</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" t="n">
+      <c r="O2" t="n">
         <v>1024</v>
       </c>
-      <c r="U2" t="n">
-        <v>1024</v>
-      </c>
-      <c r="V2" t="n">
+      <c r="P2" t="n">
         <v>128</v>
       </c>
-      <c r="W2" t="n">
+      <c r="Q2" t="n">
         <v>240</v>
       </c>
-      <c r="X2" t="n">
+      <c r="R2" t="n">
         <v>2160</v>
       </c>
     </row>
@@ -663,19 +613,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -683,16 +633,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6649999916553497</v>
+        <v>0.5374999940395355</v>
       </c>
       <c r="C2" t="n">
-        <v>1000.5439453125</v>
+        <v>998.2188110351562</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5663636272603815</v>
+        <v>0.5614772764119235</v>
       </c>
       <c r="E2" t="n">
-        <v>1001.721041592685</v>
+        <v>998.0621670809659</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -700,16 +650,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5049999952316284</v>
+        <v>0.5399999916553497</v>
       </c>
       <c r="C3" t="n">
-        <v>984.1847839355469</v>
+        <v>980.0436096191406</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5085227354006334</v>
+        <v>0.5673863698135723</v>
       </c>
       <c r="E3" t="n">
-        <v>984.4577914151279</v>
+        <v>979.8655894886364</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -717,16 +667,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5575000047683716</v>
+        <v>0.4874999821186066</v>
       </c>
       <c r="C4" t="n">
-        <v>967.4755554199219</v>
+        <v>962.7669067382812</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5555681803009727</v>
+        <v>0.5215908993374218</v>
       </c>
       <c r="E4" t="n">
-        <v>968.1887428977273</v>
+        <v>962.1959949840199</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -734,16 +684,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5324999988079071</v>
+        <v>0.4950000047683716</v>
       </c>
       <c r="C5" t="n">
-        <v>951.8775634765625</v>
+        <v>945.126708984375</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5600000023841858</v>
+        <v>0.5747727264057506</v>
       </c>
       <c r="E5" t="n">
-        <v>952.0202359286221</v>
+        <v>944.6024669300426</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -751,16 +701,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.489999994635582</v>
+        <v>0.5574999749660492</v>
       </c>
       <c r="C6" t="n">
-        <v>936.0908813476562</v>
+        <v>928.0079040527344</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5493181835521351</v>
+        <v>0.5970454541119662</v>
       </c>
       <c r="E6" t="n">
-        <v>936.0855657404119</v>
+        <v>927.5327703302556</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -768,16 +718,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5374999940395355</v>
+        <v>0.5174999982118607</v>
       </c>
       <c r="C7" t="n">
-        <v>920.3491516113281</v>
+        <v>911.2693176269531</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5919318199157715</v>
+        <v>0.5986363616856661</v>
       </c>
       <c r="E7" t="n">
-        <v>920.2238880504261</v>
+        <v>910.6869173916904</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -785,16 +735,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5649999976158142</v>
+        <v>0.5324999988079071</v>
       </c>
       <c r="C8" t="n">
-        <v>904.7879943847656</v>
+        <v>894.8448791503906</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6023863662372936</v>
+        <v>0.5887499939311635</v>
       </c>
       <c r="E8" t="n">
-        <v>904.5687366832386</v>
+        <v>894.1439098011364</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -802,16 +752,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5550000071525574</v>
+        <v>0.4900000095367432</v>
       </c>
       <c r="C9" t="n">
-        <v>889.4674072265625</v>
+        <v>878.7873229980469</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6011363701386885</v>
+        <v>0.5740909034555609</v>
       </c>
       <c r="E9" t="n">
-        <v>889.1191350763494</v>
+        <v>877.9403742009944</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -819,16 +769,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5300000011920929</v>
+        <v>0.5199999958276749</v>
       </c>
       <c r="C10" t="n">
-        <v>874.3013916015625</v>
+        <v>862.644775390625</v>
       </c>
       <c r="D10" t="n">
-        <v>0.615000004118139</v>
+        <v>0.6051136363636364</v>
       </c>
       <c r="E10" t="n">
-        <v>873.8785067471591</v>
+        <v>861.8872736150569</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -836,16 +786,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5550000071525574</v>
+        <v>0.4975000023841858</v>
       </c>
       <c r="C11" t="n">
-        <v>859.3701477050781</v>
+        <v>847.0753479003906</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5982954556291754</v>
+        <v>0.5973863655870612</v>
       </c>
       <c r="E11" t="n">
-        <v>858.8602072975852</v>
+        <v>846.2291426225142</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -853,16 +803,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5800000131130219</v>
+        <v>0.5399999916553497</v>
       </c>
       <c r="C12" t="n">
-        <v>844.5037841796875</v>
+        <v>831.56005859375</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6339772614565763</v>
+        <v>0.6354545409029181</v>
       </c>
       <c r="E12" t="n">
-        <v>844.0170621004971</v>
+        <v>830.7723777077415</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -870,16 +820,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5974999964237213</v>
+        <v>0.5375000089406967</v>
       </c>
       <c r="C13" t="n">
-        <v>829.894287109375</v>
+        <v>816.3739013671875</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6479545398191973</v>
+        <v>0.6501136422157288</v>
       </c>
       <c r="E13" t="n">
-        <v>829.4554720791904</v>
+        <v>815.6282459605824</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -887,16 +837,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5850000083446503</v>
+        <v>0.5300000011920929</v>
       </c>
       <c r="C14" t="n">
-        <v>815.5884704589844</v>
+        <v>801.5109558105469</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6545454480431296</v>
+        <v>0.6527272679589011</v>
       </c>
       <c r="E14" t="n">
-        <v>815.0484785600142</v>
+        <v>800.752274946733</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -904,16 +854,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6149999797344208</v>
+        <v>0.5425000041723251</v>
       </c>
       <c r="C15" t="n">
-        <v>801.4054565429688</v>
+        <v>786.845703125</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6542045419866388</v>
+        <v>0.663863637230613</v>
       </c>
       <c r="E15" t="n">
-        <v>800.884843306108</v>
+        <v>786.1345825195312</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -921,16 +871,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5475000143051147</v>
+        <v>0.5074999928474426</v>
       </c>
       <c r="C16" t="n">
-        <v>787.5770874023438</v>
+        <v>772.5242919921875</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6485227238048207</v>
+        <v>0.6642045432871039</v>
       </c>
       <c r="E16" t="n">
-        <v>786.9352139559659</v>
+        <v>771.766884543679</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -938,16 +888,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5224999785423279</v>
+        <v>0.4949999898672104</v>
       </c>
       <c r="C17" t="n">
-        <v>773.9398498535156</v>
+        <v>758.4404907226562</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6381818164478649</v>
+        <v>0.6665909073569558</v>
       </c>
       <c r="E17" t="n">
-        <v>773.2525079900569</v>
+        <v>757.6786776455966</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -955,16 +905,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5149999856948853</v>
+        <v>0.5174999833106995</v>
       </c>
       <c r="C18" t="n">
-        <v>760.4326782226562</v>
+        <v>744.6194763183594</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6428409110416066</v>
+        <v>0.6709090904756025</v>
       </c>
       <c r="E18" t="n">
-        <v>759.7575239701705</v>
+        <v>743.847206809304</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -972,16 +922,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5875000059604645</v>
+        <v>0.5199999958276749</v>
       </c>
       <c r="C19" t="n">
-        <v>747.0732116699219</v>
+        <v>731.0037536621094</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6688636324622415</v>
+        <v>0.677840915593234</v>
       </c>
       <c r="E19" t="n">
-        <v>746.454179243608</v>
+        <v>730.2641712535511</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -989,16 +939,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5925000011920929</v>
+        <v>0.5350000113248825</v>
       </c>
       <c r="C20" t="n">
-        <v>734.0242614746094</v>
+        <v>717.6371154785156</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6871590885249051</v>
+        <v>0.6823863766410134</v>
       </c>
       <c r="E20" t="n">
-        <v>733.4402354847301</v>
+        <v>716.9176191850142</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1006,16 +956,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5850000083446503</v>
+        <v>0.5525000095367432</v>
       </c>
       <c r="C21" t="n">
-        <v>721.2157897949219</v>
+        <v>704.48779296875</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6732954491268505</v>
+        <v>0.6842045404694297</v>
       </c>
       <c r="E21" t="n">
-        <v>720.6023171164773</v>
+        <v>703.8411754261364</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1023,16 +973,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5750000178813934</v>
+        <v>0.5324999988079071</v>
       </c>
       <c r="C22" t="n">
-        <v>708.6014099121094</v>
+        <v>691.6256713867188</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6690908995541659</v>
+        <v>0.6709090904756025</v>
       </c>
       <c r="E22" t="n">
-        <v>707.9551225142045</v>
+        <v>690.951981977983</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1043,13 +993,13 @@
         <v>0.5800000131130219</v>
       </c>
       <c r="C23" t="n">
-        <v>696.1134643554688</v>
+        <v>679.0082092285156</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6869318160143766</v>
+        <v>0.6844318129799583</v>
       </c>
       <c r="E23" t="n">
-        <v>695.5305120294744</v>
+        <v>678.319374778054</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1057,16 +1007,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5774999856948853</v>
+        <v>0.5074999928474426</v>
       </c>
       <c r="C24" t="n">
-        <v>683.90380859375</v>
+        <v>666.57666015625</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6857954588803378</v>
+        <v>0.6823863658038053</v>
       </c>
       <c r="E24" t="n">
-        <v>683.3021129261364</v>
+        <v>665.8922618519176</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1074,16 +1024,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5949999988079071</v>
+        <v>0.5099999904632568</v>
       </c>
       <c r="C25" t="n">
-        <v>671.8656005859375</v>
+        <v>654.3287353515625</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6921590945937417</v>
+        <v>0.6925000006502325</v>
       </c>
       <c r="E25" t="n">
-        <v>671.277626731179</v>
+        <v>653.7078247070312</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1091,16 +1041,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5374999940395355</v>
+        <v>0.5525000095367432</v>
       </c>
       <c r="C26" t="n">
-        <v>660.05908203125</v>
+        <v>642.3728637695312</v>
       </c>
       <c r="D26" t="n">
-        <v>0.696704544804313</v>
+        <v>0.7037500034679066</v>
       </c>
       <c r="E26" t="n">
-        <v>659.4561878551136</v>
+        <v>641.7526245117188</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1108,16 +1058,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5675000250339508</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="C27" t="n">
-        <v>648.3936157226562</v>
+        <v>630.5829162597656</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7084090872244402</v>
+        <v>0.6996590928597883</v>
       </c>
       <c r="E27" t="n">
-        <v>647.8338512073864</v>
+        <v>630.008017800071</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1125,16 +1075,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5800000131130219</v>
+        <v>0.4725000113248825</v>
       </c>
       <c r="C28" t="n">
-        <v>636.9787292480469</v>
+        <v>619.0849914550781</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7046590880914168</v>
+        <v>0.6917045495726846</v>
       </c>
       <c r="E28" t="n">
-        <v>636.4029319069602</v>
+        <v>618.4717462713069</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1142,16 +1092,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5524999797344208</v>
+        <v>0.5399999916553497</v>
       </c>
       <c r="C29" t="n">
-        <v>625.7313537597656</v>
+        <v>607.7142333984375</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6993181868032976</v>
+        <v>0.6901136311617765</v>
       </c>
       <c r="E29" t="n">
-        <v>625.16552734375</v>
+        <v>607.1511729847301</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1159,16 +1109,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5675000250339508</v>
+        <v>0.5524999797344208</v>
       </c>
       <c r="C30" t="n">
-        <v>614.6555480957031</v>
+        <v>596.5577392578125</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7118181803009727</v>
+        <v>0.6982954469594088</v>
       </c>
       <c r="E30" t="n">
-        <v>614.1091253107244</v>
+        <v>596.0421919389205</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1176,16 +1126,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5249999761581421</v>
+        <v>0.5099999904632568</v>
       </c>
       <c r="C31" t="n">
-        <v>603.8138427734375</v>
+        <v>585.650390625</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7015909119085832</v>
+        <v>0.6965909166769548</v>
       </c>
       <c r="E31" t="n">
-        <v>603.2482466264205</v>
+        <v>585.1210438121449</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1193,16 +1143,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5074999928474426</v>
+        <v>0.5275000035762787</v>
       </c>
       <c r="C32" t="n">
-        <v>593.1348266601562</v>
+        <v>574.9456176757812</v>
       </c>
       <c r="D32" t="n">
-        <v>0.700681821866469</v>
+        <v>0.6904545480554755</v>
       </c>
       <c r="E32" t="n">
-        <v>592.5815873579545</v>
+        <v>574.4156494140625</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1210,16 +1160,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5825000107288361</v>
+        <v>0.5725000202655792</v>
       </c>
       <c r="C33" t="n">
-        <v>582.5712890625</v>
+        <v>564.38232421875</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7211363640698519</v>
+        <v>0.7093181826851584</v>
       </c>
       <c r="E33" t="n">
-        <v>582.0724098899148</v>
+        <v>563.8952026367188</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1227,16 +1177,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5774999856948853</v>
+        <v>0.5424999892711639</v>
       </c>
       <c r="C34" t="n">
-        <v>572.2322998046875</v>
+        <v>554.0443420410156</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7171590978449042</v>
+        <v>0.6999999989162792</v>
       </c>
       <c r="E34" t="n">
-        <v>571.7503440163352</v>
+        <v>553.5728371360085</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1244,16 +1194,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5625</v>
+        <v>0.5324999988079071</v>
       </c>
       <c r="C35" t="n">
-        <v>562.0929565429688</v>
+        <v>543.9132080078125</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7288636402650313</v>
+        <v>0.7094318162311207</v>
       </c>
       <c r="E35" t="n">
-        <v>561.6061068448154</v>
+        <v>543.4404574307529</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1261,16 +1211,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5550000071525574</v>
+        <v>0.5249999910593033</v>
       </c>
       <c r="C36" t="n">
-        <v>552.1256713867188</v>
+        <v>533.9452209472656</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7269318266348406</v>
+        <v>0.7103409008546309</v>
       </c>
       <c r="E36" t="n">
-        <v>551.6520496715199</v>
+        <v>533.494101784446</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1278,16 +1228,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5575000047683716</v>
+        <v>0.5449999868869781</v>
       </c>
       <c r="C37" t="n">
-        <v>542.2875671386719</v>
+        <v>524.1496887207031</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7290909073569558</v>
+        <v>0.7076136361468922</v>
       </c>
       <c r="E37" t="n">
-        <v>541.8560069691051</v>
+        <v>523.7346912730824</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1295,16 +1245,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5275000035762787</v>
+        <v>0.5649999976158142</v>
       </c>
       <c r="C38" t="n">
-        <v>532.6912231445312</v>
+        <v>514.5614013671875</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7115909132090482</v>
+        <v>0.7080681757493452</v>
       </c>
       <c r="E38" t="n">
-        <v>532.2305963689631</v>
+        <v>514.1546852805398</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1312,16 +1262,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5575000047683716</v>
+        <v>0.5374999940395355</v>
       </c>
       <c r="C39" t="n">
-        <v>523.1947326660156</v>
+        <v>505.1417999267578</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7244318181818182</v>
+        <v>0.7014772729440168</v>
       </c>
       <c r="E39" t="n">
-        <v>522.7798794833096</v>
+        <v>504.7527382590554</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1329,16 +1279,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5649999976158142</v>
+        <v>0.5449999868869781</v>
       </c>
       <c r="C40" t="n">
-        <v>513.906982421875</v>
+        <v>495.9168701171875</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7297727303071455</v>
+        <v>0.713522732257843</v>
       </c>
       <c r="E40" t="n">
-        <v>513.4856289950284</v>
+        <v>495.5281483043324</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1349,13 +1299,13 @@
         <v>0.5625</v>
       </c>
       <c r="C41" t="n">
-        <v>504.7713317871094</v>
+        <v>486.8180694580078</v>
       </c>
       <c r="D41" t="n">
-        <v>0.731931821866469</v>
+        <v>0.7044318155808882</v>
       </c>
       <c r="E41" t="n">
-        <v>504.3596884987571</v>
+        <v>486.4722151322798</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1363,16 +1313,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5925000011920929</v>
+        <v>0.5474999845027924</v>
       </c>
       <c r="C42" t="n">
-        <v>495.7791595458984</v>
+        <v>477.9456939697266</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7255681861530651</v>
+        <v>0.713977271860296</v>
       </c>
       <c r="E42" t="n">
-        <v>495.4029735218395</v>
+        <v>477.5847140225497</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1380,16 +1330,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5625</v>
+        <v>0.5524999797344208</v>
       </c>
       <c r="C43" t="n">
-        <v>487.0195922851562</v>
+        <v>469.2054290771484</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7172727259722623</v>
+        <v>0.7125000032511625</v>
       </c>
       <c r="E43" t="n">
-        <v>486.6004167036577</v>
+        <v>468.863525390625</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1397,16 +1347,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5575000047683716</v>
+        <v>0.5324999988079071</v>
       </c>
       <c r="C44" t="n">
-        <v>478.3038635253906</v>
+        <v>460.6366424560547</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7273863716558977</v>
+        <v>0.7094318216497247</v>
       </c>
       <c r="E44" t="n">
-        <v>477.9328585537997</v>
+        <v>460.3080888227983</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1414,16 +1364,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5675000250339508</v>
+        <v>0.5799999833106995</v>
       </c>
       <c r="C45" t="n">
-        <v>469.7795867919922</v>
+        <v>452.2188415527344</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7319318110292609</v>
+        <v>0.7134090987118807</v>
       </c>
       <c r="E45" t="n">
-        <v>469.4353055087003</v>
+        <v>451.9134937633168</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1431,16 +1381,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5825000107288361</v>
+        <v>0.5499999821186066</v>
       </c>
       <c r="C46" t="n">
-        <v>461.4358367919922</v>
+        <v>443.98291015625</v>
       </c>
       <c r="D46" t="n">
-        <v>0.73318181254647</v>
+        <v>0.7054545391689647</v>
       </c>
       <c r="E46" t="n">
-        <v>461.0850608132102</v>
+        <v>443.6751792214134</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1448,16 +1398,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5625</v>
+        <v>0.5524999797344208</v>
       </c>
       <c r="C47" t="n">
-        <v>453.229248046875</v>
+        <v>435.8775634765625</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7337500019506975</v>
+        <v>0.7175000039013949</v>
       </c>
       <c r="E47" t="n">
-        <v>452.8876453746449</v>
+        <v>435.5918912020597</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1468,13 +1418,13 @@
         <v>0.5649999976158142</v>
       </c>
       <c r="C48" t="n">
-        <v>445.1510925292969</v>
+        <v>427.9313201904297</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7332954515110363</v>
+        <v>0.710681823166934</v>
       </c>
       <c r="E48" t="n">
-        <v>444.8312211470171</v>
+        <v>427.6601312810724</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1482,16 +1432,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5875000059604645</v>
+        <v>0.5750000178813934</v>
       </c>
       <c r="C49" t="n">
-        <v>437.2182922363281</v>
+        <v>420.1256713867188</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7318181774832986</v>
+        <v>0.7062499902465127</v>
       </c>
       <c r="E49" t="n">
-        <v>436.9256536310369</v>
+        <v>419.8772666237571</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1499,16 +1449,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5324999988079071</v>
+        <v>0.5199999958276749</v>
       </c>
       <c r="C50" t="n">
-        <v>429.4972076416016</v>
+        <v>412.5107116699219</v>
       </c>
       <c r="D50" t="n">
-        <v>0.7155681902712042</v>
+        <v>0.7053409002043984</v>
       </c>
       <c r="E50" t="n">
-        <v>429.1619651100852</v>
+        <v>412.243427623402</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1516,16 +1466,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5925000011920929</v>
+        <v>0.5625</v>
       </c>
       <c r="C51" t="n">
-        <v>421.8100280761719</v>
+        <v>404.9900970458984</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7318181829019026</v>
+        <v>0.7049999995665117</v>
       </c>
       <c r="E51" t="n">
-        <v>421.5283813476562</v>
+        <v>404.7520058371804</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1533,16 +1483,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.574999988079071</v>
+        <v>0.554999977350235</v>
       </c>
       <c r="C52" t="n">
-        <v>414.3258666992188</v>
+        <v>397.6414642333984</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7275000052018599</v>
+        <v>0.7081818201325156</v>
       </c>
       <c r="E52" t="n">
-        <v>414.0332558371804</v>
+        <v>397.4024353027344</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1550,16 +1500,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5875000059604645</v>
+        <v>0.5900000035762787</v>
       </c>
       <c r="C53" t="n">
-        <v>406.950439453125</v>
+        <v>390.4071655273438</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7346590919928118</v>
+        <v>0.7122727307406339</v>
       </c>
       <c r="E53" t="n">
-        <v>406.6749988902699</v>
+        <v>390.1910788796165</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1567,16 +1517,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5825000107288361</v>
+        <v>0.5725000202655792</v>
       </c>
       <c r="C54" t="n">
-        <v>399.7151641845703</v>
+        <v>383.3323822021484</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7259090922095559</v>
+        <v>0.7053409164602106</v>
       </c>
       <c r="E54" t="n">
-        <v>399.4508195356889</v>
+        <v>383.1174288662997</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1584,16 +1534,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6049999892711639</v>
+        <v>0.5900000035762787</v>
       </c>
       <c r="C55" t="n">
-        <v>392.6019592285156</v>
+        <v>376.3708953857422</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7312499989162792</v>
+        <v>0.705568178133531</v>
       </c>
       <c r="E55" t="n">
-        <v>392.3577215021307</v>
+        <v>376.1767744584517</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1601,16 +1551,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5775000154972076</v>
+        <v>0.5750000178813934</v>
       </c>
       <c r="C56" t="n">
-        <v>385.6337280273438</v>
+        <v>369.5558013916016</v>
       </c>
       <c r="D56" t="n">
-        <v>0.7337500019506975</v>
+        <v>0.7093181826851584</v>
       </c>
       <c r="E56" t="n">
-        <v>385.3907359730114</v>
+        <v>369.3685358220881</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1618,16 +1568,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5974999964237213</v>
+        <v>0.5625</v>
       </c>
       <c r="C57" t="n">
-        <v>378.7931823730469</v>
+        <v>362.8769226074219</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7264772653579712</v>
+        <v>0.7032954530282454</v>
       </c>
       <c r="E57" t="n">
-        <v>378.5516912286932</v>
+        <v>362.6890563964844</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1635,16 +1585,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5775000154972076</v>
+        <v>0.5800000131130219</v>
       </c>
       <c r="C58" t="n">
-        <v>372.0654144287109</v>
+        <v>356.3171081542969</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7297727411443536</v>
+        <v>0.7005681829019026</v>
       </c>
       <c r="E58" t="n">
-        <v>371.8360401500355</v>
+        <v>356.1370849609375</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1652,16 +1602,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5999999940395355</v>
+        <v>0.5825000107288361</v>
       </c>
       <c r="C59" t="n">
-        <v>365.4675598144531</v>
+        <v>349.8759765625</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7306818095120516</v>
+        <v>0.7053409164602106</v>
       </c>
       <c r="E59" t="n">
-        <v>365.2428172718395</v>
+        <v>349.7098638361151</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1669,16 +1619,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5775000154972076</v>
+        <v>0.5725000202655792</v>
       </c>
       <c r="C60" t="n">
-        <v>358.9868011474609</v>
+        <v>343.5793609619141</v>
       </c>
       <c r="D60" t="n">
-        <v>0.7285227287899364</v>
+        <v>0.6969318173148416</v>
       </c>
       <c r="E60" t="n">
-        <v>358.7699640447443</v>
+        <v>343.4064386541193</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1686,16 +1636,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5974999964237213</v>
+        <v>0.5999999940395355</v>
       </c>
       <c r="C61" t="n">
-        <v>352.6176910400391</v>
+        <v>337.3707275390625</v>
       </c>
       <c r="D61" t="n">
-        <v>0.723522728139704</v>
+        <v>0.7009090943769976</v>
       </c>
       <c r="E61" t="n">
-        <v>352.4159351695668</v>
+        <v>337.219032981179</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1703,16 +1653,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5900000035762787</v>
+        <v>0.5925000011920929</v>
       </c>
       <c r="C62" t="n">
-        <v>346.375</v>
+        <v>331.3011016845703</v>
       </c>
       <c r="D62" t="n">
-        <v>0.7292045463215221</v>
+        <v>0.6969318173148416</v>
       </c>
       <c r="E62" t="n">
-        <v>346.1765941273082</v>
+        <v>331.1509371670809</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1720,16 +1670,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5725000202655792</v>
+        <v>0.5800000131130219</v>
       </c>
       <c r="C63" t="n">
-        <v>340.2403564453125</v>
+        <v>325.3369293212891</v>
       </c>
       <c r="D63" t="n">
-        <v>0.7226136380975897</v>
+        <v>0.6987500082362782</v>
       </c>
       <c r="E63" t="n">
-        <v>340.0522294477983</v>
+        <v>325.1995211514559</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1737,16 +1687,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5750000178813934</v>
+        <v>0.5925000011920929</v>
       </c>
       <c r="C64" t="n">
-        <v>334.21923828125</v>
+        <v>319.4938812255859</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7192045504396612</v>
+        <v>0.6929545456712897</v>
       </c>
       <c r="E64" t="n">
-        <v>334.0408241965554</v>
+        <v>319.3616277521307</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1754,16 +1704,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5750000178813934</v>
+        <v>0.5949999988079071</v>
       </c>
       <c r="C65" t="n">
-        <v>328.3114166259766</v>
+        <v>313.7681427001953</v>
       </c>
       <c r="D65" t="n">
-        <v>0.721931825984608</v>
+        <v>0.6978409073569558</v>
       </c>
       <c r="E65" t="n">
-        <v>328.1367270729759</v>
+        <v>313.6336642178622</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1771,16 +1721,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5575000047683716</v>
+        <v>0.5925000011920929</v>
       </c>
       <c r="C66" t="n">
-        <v>322.5081939697266</v>
+        <v>308.1383209228516</v>
       </c>
       <c r="D66" t="n">
-        <v>0.7210227251052856</v>
+        <v>0.6946590867909518</v>
       </c>
       <c r="E66" t="n">
-        <v>322.3432672674006</v>
+        <v>308.0165710449219</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1788,16 +1738,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5625</v>
+        <v>0.5775000154972076</v>
       </c>
       <c r="C67" t="n">
-        <v>316.8201293945312</v>
+        <v>302.6256103515625</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7145454612645236</v>
+        <v>0.6959090828895569</v>
       </c>
       <c r="E67" t="n">
-        <v>316.6560086337003</v>
+        <v>302.5054543235085</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1805,16 +1755,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5649999976158142</v>
+        <v>0.5974999964237213</v>
       </c>
       <c r="C68" t="n">
-        <v>311.2242279052734</v>
+        <v>297.2165832519531</v>
       </c>
       <c r="D68" t="n">
-        <v>0.7132954597473145</v>
+        <v>0.692272728139704</v>
       </c>
       <c r="E68" t="n">
-        <v>311.0743352716619</v>
+        <v>297.1001753373579</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1822,16 +1772,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5449999868869781</v>
+        <v>0.5800000131130219</v>
       </c>
       <c r="C69" t="n">
-        <v>305.7467651367188</v>
+        <v>291.906494140625</v>
       </c>
       <c r="D69" t="n">
-        <v>0.715568174015392</v>
+        <v>0.6865909153764899</v>
       </c>
       <c r="E69" t="n">
-        <v>305.5939525257457</v>
+        <v>291.7991804643111</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1839,16 +1789,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5550000071525574</v>
+        <v>0.5925000011920929</v>
       </c>
       <c r="C70" t="n">
-        <v>300.3602905273438</v>
+        <v>286.7064514160156</v>
       </c>
       <c r="D70" t="n">
-        <v>0.7135227268392389</v>
+        <v>0.6885227290066805</v>
       </c>
       <c r="E70" t="n">
-        <v>300.2151239568537</v>
+        <v>286.5979364568537</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1856,16 +1806,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5800000131130219</v>
+        <v>0.5875000059604645</v>
       </c>
       <c r="C71" t="n">
-        <v>295.0683898925781</v>
+        <v>281.5939483642578</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7114772742444818</v>
+        <v>0.6811363588679921</v>
       </c>
       <c r="E71" t="n">
-        <v>294.9375554865057</v>
+        <v>281.4979553222656</v>
       </c>
     </row>
   </sheetData>
@@ -1879,7 +1829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1889,1058 +1839,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>0.3758389261744967</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.417910447761194</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01219512195121951</v>
+        <v>0.3414634146341464</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>0.7190332326283989</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.6878612716763006</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06097560975609756</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.01265822784810127</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06097560975609756</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.01265822784810127</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.08536585365853659</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.0189873417721519</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.08536585365853659</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.0189873417721519</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1097560975609756</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.03164556962025317</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1097560975609756</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.03164556962025317</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1463414634146341</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.05063291139240506</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1463414634146341</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.05063291139240506</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1707317073170732</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.08860759493670886</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1707317073170732</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.08860759493670886</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1829268292682927</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.1329113924050633</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1829268292682927</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>0.1329113924050633</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2073170731707317</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="n">
-        <v>0.1582278481012658</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2073170731707317</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="n">
-        <v>0.1582278481012658</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2195121951219512</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="n">
-        <v>0.1645569620253164</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.2195121951219512</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="n">
-        <v>0.1645569620253164</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.2317073170731707</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="n">
-        <v>0.189873417721519</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.2317073170731707</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="n">
-        <v>0.189873417721519</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.2439024390243902</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="n">
-        <v>0.2911392405063291</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.2439024390243902</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="n">
-        <v>0.2911392405063291</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.2804878048780488</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="n">
-        <v>0.3037974683544304</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.2804878048780488</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="n">
-        <v>0.3037974683544304</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.3414634146341464</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="n">
-        <v>0.3227848101265823</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.3414634146341464</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="n">
-        <v>0.3227848101265823</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.3658536585365854</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="n">
-        <v>0.3354430379746836</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.3658536585365854</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="n">
-        <v>0.3354430379746836</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.3780487804878049</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="n">
-        <v>0.379746835443038</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.3780487804878049</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="n">
-        <v>0.379746835443038</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.4146341463414634</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="n">
-        <v>0.3860759493670886</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.4146341463414634</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="n">
-        <v>0.3860759493670886</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.4390243902439024</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="n">
-        <v>0.3924050632911392</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.4390243902439024</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="n">
-        <v>0.3924050632911392</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.451219512195122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="n">
-        <v>0.3987341772151899</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.451219512195122</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="n">
-        <v>0.3987341772151899</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.4634146341463415</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="n">
-        <v>0.4430379746835443</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.4634146341463415</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="n">
-        <v>0.4430379746835443</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.475609756097561</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="n">
-        <v>0.4683544303797468</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.475609756097561</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="n">
-        <v>0.4683544303797468</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.4878048780487805</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="n">
-        <v>0.4746835443037974</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.4878048780487805</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="n">
-        <v>0.4746835443037974</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="n">
-        <v>0.4810126582278481</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="n">
-        <v>0.4810126582278481</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.5121951219512195</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="n">
-        <v>0.5443037974683544</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.5121951219512195</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="n">
-        <v>0.5443037974683544</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.524390243902439</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="n">
-        <v>0.5822784810126582</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.524390243902439</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="n">
-        <v>0.5822784810126582</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.5487804878048781</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="n">
-        <v>0.6012658227848101</v>
-      </c>
-      <c r="B50" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.5487804878048781</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="n">
-        <v>0.6012658227848101</v>
-      </c>
-      <c r="B51" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.573170731707317</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="n">
-        <v>0.6139240506329114</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.573170731707317</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="n">
-        <v>0.6139240506329114</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.5975609756097561</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="n">
-        <v>0.6329113924050633</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.5975609756097561</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="n">
-        <v>0.6329113924050633</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.6097560975609756</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="n">
-        <v>0.6455696202531646</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.6097560975609756</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="n">
-        <v>0.6455696202531646</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.6341463414634146</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="n">
-        <v>0.6518987341772152</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.6341463414634146</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="n">
-        <v>0.6518987341772152</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.6463414634146342</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="n">
-        <v>0.6582278481012658</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.6463414634146342</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="n">
-        <v>0.6582278481012658</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.6585365853658537</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="n">
-        <v>0.6645569620253164</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.6585365853658537</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="n">
-        <v>0.6645569620253164</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.6951219512195121</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="n">
-        <v>0.689873417721519</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.6951219512195121</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="n">
-        <v>0.689873417721519</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.7073170731707317</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="n">
-        <v>0.7025316455696202</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0.7073170731707317</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="n">
-        <v>0.7025316455696202</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0.7195121951219512</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="n">
-        <v>0.7215189873417721</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0.7195121951219512</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="n">
-        <v>0.7215189873417721</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0.7439024390243902</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="n">
-        <v>0.740506329113924</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0.7439024390243902</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="n">
-        <v>0.740506329113924</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0.7560975609756098</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="n">
-        <v>0.7468354430379747</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0.7560975609756098</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="n">
-        <v>0.7468354430379747</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0.7682926829268293</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="n">
-        <v>0.7721518987341772</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0.7682926829268293</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="n">
-        <v>0.7721518987341772</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0.7926829268292683</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="n">
-        <v>0.7784810126582279</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0.7926829268292683</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="n">
-        <v>0.7784810126582279</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0.8048780487804879</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="n">
-        <v>0.8544303797468354</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0.8048780487804879</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="n">
-        <v>0.8544303797468354</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0.8292682926829268</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="n">
-        <v>0.8860759493670886</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0.8292682926829268</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="n">
-        <v>0.8860759493670886</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0.8536585365853658</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="n">
-        <v>0.9050632911392406</v>
-      </c>
-      <c r="B82" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0.8536585365853658</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="n">
-        <v>0.9050632911392406</v>
-      </c>
-      <c r="B83" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0.8902439024390244</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="n">
-        <v>0.9113924050632911</v>
-      </c>
-      <c r="B84" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0.8902439024390244</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="n">
-        <v>0.9113924050632911</v>
-      </c>
-      <c r="B85" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0.9024390243902439</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="n">
-        <v>0.9177215189873418</v>
-      </c>
-      <c r="B86" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C86" t="n">
-        <v>0.9024390243902439</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="n">
-        <v>0.9177215189873418</v>
-      </c>
-      <c r="B87" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C87" t="n">
-        <v>0.9146341463414634</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="n">
-        <v>0.9367088607594937</v>
-      </c>
-      <c r="B88" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C88" t="n">
-        <v>0.9146341463414634</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="n">
-        <v>0.9367088607594937</v>
-      </c>
-      <c r="B89" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C89" t="n">
-        <v>0.9390243902439024</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="n">
-        <v>0.9430379746835443</v>
-      </c>
-      <c r="B90" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0.9390243902439024</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="n">
-        <v>0.9430379746835443</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0.9512195121951219</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="n">
-        <v>0.9746835443037974</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0.9512195121951219</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="n">
-        <v>0.9746835443037974</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0.9634146341463414</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="n">
-        <v>0.9746835443037974</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0.9878048780487805</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="n">
-        <v>1</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0.9878048780487805</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="n">
-        <v>1</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C96" t="n">
-        <v>1</v>
+        <v>0.7531645569620253</v>
       </c>
     </row>
   </sheetData>
@@ -2954,7 +1881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2964,13 +1891,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2978,7 +1905,1137 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.01219512195121951</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="n">
+        <v>0.01265822784810127</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.01219512195121951</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="n">
+        <v>0.01265822784810127</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.03658536585365853</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="n">
+        <v>0.0189873417721519</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.03658536585365853</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="n">
+        <v>0.0189873417721519</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.06097560975609756</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="n">
+        <v>0.02531645569620253</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.06097560975609756</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="n">
+        <v>0.02531645569620253</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0975609756097561</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="n">
+        <v>0.05696202531645569</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0975609756097561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="n">
+        <v>0.05696202531645569</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1097560975609756</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="n">
+        <v>0.0759493670886076</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1097560975609756</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="n">
+        <v>0.0759493670886076</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1219512195121951</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="n">
+        <v>0.08860759493670886</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1219512195121951</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="n">
+        <v>0.08860759493670886</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1707317073170732</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="n">
+        <v>0.1265822784810127</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1707317073170732</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="n">
+        <v>0.1265822784810127</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2073170731707317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="n">
+        <v>0.1392405063291139</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2073170731707317</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="n">
+        <v>0.1392405063291139</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2317073170731707</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="n">
+        <v>0.1455696202531646</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2317073170731707</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="n">
+        <v>0.1455696202531646</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.2439024390243902</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="n">
+        <v>0.1582278481012658</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.2439024390243902</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="n">
+        <v>0.1582278481012658</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.2682926829268293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="n">
+        <v>0.1645569620253164</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.2682926829268293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="n">
+        <v>0.1645569620253164</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.2804878048780488</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="n">
+        <v>0.1772151898734177</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.2804878048780488</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="n">
+        <v>0.1772151898734177</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.2926829268292683</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="n">
+        <v>0.189873417721519</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.2926829268292683</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="n">
+        <v>0.189873417721519</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.3170731707317073</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="n">
+        <v>0.1962025316455696</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.3170731707317073</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="n">
+        <v>0.1962025316455696</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.3292682926829268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="n">
+        <v>0.2341772151898734</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.3292682926829268</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="n">
+        <v>0.2341772151898734</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.3414634146341464</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="n">
+        <v>0.2594936708860759</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.3414634146341464</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="n">
+        <v>0.2594936708860759</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.3536585365853658</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="n">
+        <v>0.2784810126582278</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.3536585365853658</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="n">
+        <v>0.2784810126582278</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.3780487804878049</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="n">
+        <v>0.3417721518987342</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.3780487804878049</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="n">
+        <v>0.3417721518987342</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.3902439024390244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="n">
+        <v>0.3670886075949367</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.3902439024390244</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="n">
+        <v>0.3670886075949367</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.4146341463414634</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="n">
+        <v>0.3670886075949367</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.4268292682926829</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="n">
+        <v>0.3734177215189873</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.4268292682926829</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="n">
+        <v>0.3734177215189873</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.4390243902439024</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="n">
+        <v>0.379746835443038</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.4390243902439024</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="n">
+        <v>0.379746835443038</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.4634146341463415</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="n">
+        <v>0.4303797468354431</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.4634146341463415</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="n">
+        <v>0.4303797468354431</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="n">
+        <v>0.4367088607594937</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="n">
+        <v>0.4367088607594937</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.5121951219512195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="n">
+        <v>0.4430379746835443</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.5121951219512195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="n">
+        <v>0.4430379746835443</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.524390243902439</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="n">
+        <v>0.4556962025316456</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.524390243902439</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="n">
+        <v>0.4556962025316456</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.5365853658536586</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="n">
+        <v>0.4683544303797468</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.5365853658536586</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="n">
+        <v>0.4683544303797468</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.5487804878048781</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="n">
+        <v>0.4936708860759494</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.5487804878048781</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="n">
+        <v>0.4936708860759494</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.5609756097560976</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="n">
+        <v>0.5189873417721519</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.5609756097560976</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="n">
+        <v>0.5189873417721519</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.573170731707317</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="n">
+        <v>0.5443037974683544</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.573170731707317</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="n">
+        <v>0.5443037974683544</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.5975609756097561</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="n">
+        <v>0.5506329113924051</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.5975609756097561</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="n">
+        <v>0.5506329113924051</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.6097560975609756</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="n">
+        <v>0.6012658227848101</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.6097560975609756</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="n">
+        <v>0.6012658227848101</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.6341463414634146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="n">
+        <v>0.6075949367088608</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.6341463414634146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="n">
+        <v>0.6075949367088608</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.6463414634146342</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="n">
+        <v>0.620253164556962</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.6463414634146342</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="n">
+        <v>0.620253164556962</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.6707317073170732</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="n">
+        <v>0.6392405063291139</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.6707317073170732</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="n">
+        <v>0.6392405063291139</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.7682926829268293</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="n">
+        <v>0.6455696202531646</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.7682926829268293</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="n">
+        <v>0.6455696202531646</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.7804878048780488</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="n">
+        <v>0.6835443037974683</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.7804878048780488</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="n">
+        <v>0.6835443037974683</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.8048780487804879</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="n">
+        <v>0.759493670886076</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.8048780487804879</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="n">
+        <v>0.759493670886076</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.8170731707317073</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="n">
+        <v>0.7658227848101266</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.8170731707317073</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="n">
+        <v>0.7658227848101266</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.8292682926829268</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="n">
+        <v>0.7911392405063291</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.8292682926829268</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="n">
+        <v>0.7911392405063291</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.8536585365853658</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="n">
+        <v>0.8037974683544303</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.8536585365853658</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="n">
+        <v>0.8037974683544303</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.8658536585365854</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="n">
+        <v>0.8164556962025317</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.8658536585365854</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="n">
+        <v>0.8164556962025317</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.8780487804878049</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="n">
+        <v>0.8544303797468354</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.8780487804878049</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="n">
+        <v>0.8544303797468354</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.8902439024390244</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="n">
+        <v>0.8734177215189873</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.8902439024390244</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="n">
+        <v>0.8734177215189873</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.9024390243902439</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="n">
+        <v>0.8924050632911392</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.9024390243902439</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="n">
+        <v>0.8924050632911392</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.9146341463414634</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="n">
+        <v>0.9240506329113924</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.9146341463414634</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="n">
+        <v>0.9240506329113924</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.926829268292683</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="n">
+        <v>0.930379746835443</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.926829268292683</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="n">
+        <v>0.930379746835443</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.9390243902439024</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="n">
+        <v>0.9430379746835443</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.9390243902439024</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="n">
+        <v>0.9430379746835443</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.9634146341463414</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="n">
+        <v>0.9746835443037974</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.9634146341463414</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="n">
+        <v>0.9746835443037974</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.975609756097561</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="n">
+        <v>1</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.975609756097561</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="n">
+        <v>1</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C103"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5575794998456314</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2989,7 +3046,7 @@
         <v>0.01219512195121951</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2997,21 +3054,21 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="n">
-        <v>0.01219512195121951</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02531645569620253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="n">
-        <v>0.03658536585365853</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C5" t="n">
         <v>0.02531645569620253</v>
@@ -3019,10 +3076,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="n">
-        <v>0.04878048780487805</v>
+        <v>0.03658536585365853</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C6" t="n">
         <v>0.02531645569620253</v>
@@ -3030,10 +3087,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>0.04878048780487805</v>
+        <v>0.03658536585365853</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C7" t="n">
         <v>0.05696202531645569</v>
@@ -3044,7 +3101,7 @@
         <v>0.06097560975609756</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C8" t="n">
         <v>0.05696202531645569</v>
@@ -3055,428 +3112,428 @@
         <v>0.06097560975609756</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06329113924050633</v>
+        <v>0.06962025316455696</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="n">
-        <v>0.08536585365853659</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06329113924050633</v>
+        <v>0.06962025316455696</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>0.08536585365853659</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08227848101265822</v>
+        <v>0.0759493670886076</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="n">
-        <v>0.0975609756097561</v>
+        <v>0.08536585365853659</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08227848101265822</v>
+        <v>0.0759493670886076</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0.0975609756097561</v>
+        <v>0.08536585365853659</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08860759493670886</v>
+        <v>0.1075949367088608</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>0.1097560975609756</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08860759493670886</v>
+        <v>0.1075949367088608</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>0.1097560975609756</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0949367088607595</v>
+        <v>0.1265822784810127</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>0.1463414634146341</v>
+        <v>0.1097560975609756</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0949367088607595</v>
+        <v>0.1265822784810127</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>0.1463414634146341</v>
+        <v>0.1097560975609756</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1139240506329114</v>
+        <v>0.1455696202531646</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.1707317073170732</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1139240506329114</v>
+        <v>0.1455696202531646</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.1707317073170732</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1455696202531646</v>
+        <v>0.1835443037974684</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>0.1951219512195122</v>
+        <v>0.1341463414634146</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1455696202531646</v>
+        <v>0.1835443037974684</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.1951219512195122</v>
+        <v>0.1341463414634146</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2215189873417721</v>
+        <v>0.1962025316455696</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0.2073170731707317</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2215189873417721</v>
+        <v>0.1962025316455696</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.2073170731707317</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2278481012658228</v>
+        <v>0.2088607594936709</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>0.2317073170731707</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2278481012658228</v>
+        <v>0.2088607594936709</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.2317073170731707</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2531645569620253</v>
+        <v>0.2341772151898734</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.2439024390243902</v>
+        <v>0.1829268292682927</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2531645569620253</v>
+        <v>0.2341772151898734</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.2439024390243902</v>
+        <v>0.1829268292682927</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2594936708860759</v>
+        <v>0.2405063291139241</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.2560975609756098</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2594936708860759</v>
+        <v>0.2405063291139241</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.2560975609756098</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2784810126582278</v>
+        <v>0.3164556962025317</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.2804878048780488</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2784810126582278</v>
+        <v>0.3164556962025317</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.2804878048780488</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2974683544303797</v>
+        <v>0.3544303797468354</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.2926829268292683</v>
+        <v>0.2317073170731707</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2974683544303797</v>
+        <v>0.3544303797468354</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.2926829268292683</v>
+        <v>0.2317073170731707</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C33" t="n">
-        <v>0.310126582278481</v>
+        <v>0.3607594936708861</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.3048780487804878</v>
+        <v>0.3292682926829268</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C34" t="n">
-        <v>0.310126582278481</v>
+        <v>0.3607594936708861</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.3048780487804878</v>
+        <v>0.3292682926829268</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3354430379746836</v>
+        <v>0.379746835443038</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>0.3414634146341464</v>
+        <v>0.3536585365853658</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3354430379746836</v>
+        <v>0.379746835443038</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.3414634146341464</v>
+        <v>0.3536585365853658</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3417721518987342</v>
+        <v>0.3924050632911392</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.3536585365853658</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3417721518987342</v>
+        <v>0.3924050632911392</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.3536585365853658</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3481012658227848</v>
+        <v>0.3987341772151899</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.3658536585365854</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3481012658227848</v>
+        <v>0.3987341772151899</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.3658536585365854</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3544303797468354</v>
+        <v>0.4493670886075949</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.3902439024390244</v>
+        <v>0.4024390243902439</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3544303797468354</v>
+        <v>0.4493670886075949</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.3902439024390244</v>
+        <v>0.4024390243902439</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3670886075949367</v>
+        <v>0.4556962025316456</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.4024390243902439</v>
+        <v>0.4268292682926829</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3670886075949367</v>
+        <v>0.4556962025316456</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.4024390243902439</v>
+        <v>0.4268292682926829</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3860759493670886</v>
+        <v>0.4810126582278481</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.4268292682926829</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3860759493670886</v>
+        <v>0.4810126582278481</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>0.4268292682926829</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3987341772151899</v>
+        <v>0.5063291139240507</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3484,10 +3541,10 @@
         <v>0.451219512195122</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3987341772151899</v>
+        <v>0.5063291139240507</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3495,208 +3552,208 @@
         <v>0.451219512195122</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4177215189873418</v>
+        <v>0.5316455696202531</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.475609756097561</v>
+        <v>0.4634146341463415</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4177215189873418</v>
+        <v>0.5316455696202531</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.475609756097561</v>
+        <v>0.4634146341463415</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4556962025316456</v>
+        <v>0.5443037974683544</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.4878048780487805</v>
+        <v>0.475609756097561</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4556962025316456</v>
+        <v>0.5443037974683544</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.4878048780487805</v>
+        <v>0.475609756097561</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5189873417721519</v>
+        <v>0.5569620253164557</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.5</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5189873417721519</v>
+        <v>0.5569620253164557</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.5</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5253164556962026</v>
+        <v>0.5632911392405063</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.5121951219512195</v>
+        <v>0.5</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5253164556962026</v>
+        <v>0.5632911392405063</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.5121951219512195</v>
+        <v>0.5</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5316455696202531</v>
+        <v>0.569620253164557</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.524390243902439</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5316455696202531</v>
+        <v>0.569620253164557</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.524390243902439</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5569620253164557</v>
+        <v>0.620253164556962</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.5365853658536586</v>
+        <v>0.5609756097560976</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5569620253164557</v>
+        <v>0.620253164556962</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.5365853658536586</v>
+        <v>0.5609756097560976</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6012658227848101</v>
+        <v>0.6265822784810127</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.5487804878048781</v>
+        <v>0.573170731707317</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6012658227848101</v>
+        <v>0.6265822784810127</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.5487804878048781</v>
+        <v>0.573170731707317</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6075949367088608</v>
+        <v>0.6329113924050633</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.5609756097560976</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6075949367088608</v>
+        <v>0.6329113924050633</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.5609756097560976</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6139240506329114</v>
+        <v>0.6329113924050633</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.5853658536585366</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6139240506329114</v>
+        <v>0.6582278481012658</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.5853658536585366</v>
+        <v>0.6219512195121951</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C67" t="n">
-        <v>0.620253164556962</v>
+        <v>0.6582278481012658</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3704,43 +3761,43 @@
         <v>0.6219512195121951</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C68" t="n">
-        <v>0.620253164556962</v>
+        <v>0.7215189873417721</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.6219512195121951</v>
+        <v>0.6463414634146342</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6645569620253164</v>
+        <v>0.7215189873417721</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.6341463414634146</v>
+        <v>0.6463414634146342</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6645569620253164</v>
+        <v>0.740506329113924</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.6341463414634146</v>
+        <v>0.6585365853658537</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6772151898734177</v>
+        <v>0.740506329113924</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3748,62 +3805,62 @@
         <v>0.6585365853658537</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6772151898734177</v>
+        <v>0.7658227848101266</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.6585365853658537</v>
+        <v>0.6707317073170732</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6962025316455697</v>
+        <v>0.7658227848101266</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.7195121951219512</v>
+        <v>0.6707317073170732</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6962025316455697</v>
+        <v>0.8037974683544303</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.7195121951219512</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7088607594936709</v>
+        <v>0.8037974683544303</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.7560975609756098</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7088607594936709</v>
+        <v>0.810126582278481</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.7560975609756098</v>
+        <v>0.7073170731707317</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C77" t="n">
         <v>0.810126582278481</v>
@@ -3811,32 +3868,32 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.7682926829268293</v>
+        <v>0.7073170731707317</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C78" t="n">
-        <v>0.810126582278481</v>
+        <v>0.8227848101265823</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.7682926829268293</v>
+        <v>0.7195121951219512</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8354430379746836</v>
+        <v>0.8227848101265823</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.7804878048780488</v>
+        <v>0.7195121951219512</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C80" t="n">
         <v>0.8354430379746836</v>
@@ -3844,21 +3901,21 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.7804878048780488</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8417721518987342</v>
+        <v>0.8354430379746836</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0.7926829268292683</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C82" t="n">
         <v>0.8417721518987342</v>
@@ -3866,155 +3923,232 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>0.7926829268292683</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8670886075949367</v>
+        <v>0.8417721518987342</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>0.8170731707317073</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8670886075949367</v>
+        <v>0.8544303797468354</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>0.8170731707317073</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9113924050632911</v>
+        <v>0.8544303797468354</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>0.8292682926829268</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9113924050632911</v>
+        <v>0.8607594936708861</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>0.8292682926829268</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9493670886075949</v>
+        <v>0.8607594936708861</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>0.8536585365853658</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9493670886075949</v>
+        <v>0.8734177215189873</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="n">
-        <v>0.8536585365853658</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9683544303797469</v>
+        <v>0.8734177215189873</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>0.8902439024390244</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9683544303797469</v>
+        <v>0.9113924050632911</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
-        <v>0.8902439024390244</v>
+        <v>0.8780487804878049</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9810126582278481</v>
+        <v>0.9113924050632911</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="n">
-        <v>0.9146341463414634</v>
+        <v>0.8780487804878049</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9810126582278481</v>
+        <v>0.9240506329113924</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="n">
-        <v>0.9146341463414634</v>
+        <v>0.8902439024390244</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9873417721518988</v>
+        <v>0.9240506329113924</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="n">
-        <v>0.9390243902439024</v>
+        <v>0.8902439024390244</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9873417721518988</v>
+        <v>0.9430379746835443</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="n">
-        <v>0.9390243902439024</v>
+        <v>0.9024390243902439</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5140475455387465</v>
+        <v>0.5575794998456314</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>0.9430379746835443</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="n">
+        <v>0.9024390243902439</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.9746835443037974</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="n">
+        <v>0.9390243902439024</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.9746835443037974</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="n">
+        <v>0.9390243902439024</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.9810126582278481</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="n">
+        <v>0.9634146341463414</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.9810126582278481</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="n">
+        <v>0.9634146341463414</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.9873417721518988</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="n">
+        <v>0.9878048780487805</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.9873417721518988</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="n">
+        <v>0.9878048780487805</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C102" t="n">
         <v>1</v>
       </c>
-      <c r="B96" t="n">
-        <v>0.5140475455387465</v>
-      </c>
-      <c r="C96" t="n">
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="n">
+        <v>1</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.5575794998456314</v>
+      </c>
+      <c r="C103" t="n">
         <v>1</v>
       </c>
     </row>
